--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H2">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>230.6677395827637</v>
+        <v>233.9691024393282</v>
       </c>
       <c r="R2">
-        <v>230.6677395827637</v>
+        <v>2105.721921953954</v>
       </c>
       <c r="S2">
-        <v>0.01162157030498751</v>
+        <v>0.01077221175910876</v>
       </c>
       <c r="T2">
-        <v>0.01162157030498751</v>
+        <v>0.01077221175910876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H3">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>946.9905371529475</v>
+        <v>968.0010242437938</v>
       </c>
       <c r="R3">
-        <v>946.9905371529475</v>
+        <v>8712.009218194144</v>
       </c>
       <c r="S3">
-        <v>0.0477115574357639</v>
+        <v>0.04456790194719125</v>
       </c>
       <c r="T3">
-        <v>0.0477115574357639</v>
+        <v>0.04456790194719124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H4">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>2517.624050008213</v>
+        <v>2554.51954361628</v>
       </c>
       <c r="R4">
-        <v>2517.624050008213</v>
+        <v>22990.67589254652</v>
       </c>
       <c r="S4">
-        <v>0.1268436797951097</v>
+        <v>0.1176130744603435</v>
       </c>
       <c r="T4">
-        <v>0.1268436797951097</v>
+        <v>0.1176130744603435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H5">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I5">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J5">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>2506.877799092252</v>
+        <v>2948.423789922786</v>
       </c>
       <c r="R5">
-        <v>2506.877799092252</v>
+        <v>26535.81410930508</v>
       </c>
       <c r="S5">
-        <v>0.1263022590018909</v>
+        <v>0.1357488877356291</v>
       </c>
       <c r="T5">
-        <v>0.1263022590018909</v>
+        <v>0.1357488877356291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H6">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I6">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J6">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>601.079492186644</v>
+        <v>685.4091958732238</v>
       </c>
       <c r="R6">
-        <v>601.079492186644</v>
+        <v>6168.682762859014</v>
       </c>
       <c r="S6">
-        <v>0.03028376482107448</v>
+        <v>0.03155704288561541</v>
       </c>
       <c r="T6">
-        <v>0.03028376482107448</v>
+        <v>0.0315570428856154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H7">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J7">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>282.6384703056452</v>
+        <v>286.9770709491365</v>
       </c>
       <c r="R7">
-        <v>282.6384703056452</v>
+        <v>2582.793638542229</v>
       </c>
       <c r="S7">
-        <v>0.01423997503722286</v>
+        <v>0.01321276077072835</v>
       </c>
       <c r="T7">
-        <v>0.01423997503722286</v>
+        <v>0.01321276077072835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H8">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J8">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>1160.352797053336</v>
+        <v>1187.31104114606</v>
       </c>
       <c r="R8">
-        <v>1160.352797053336</v>
+        <v>10685.79937031454</v>
       </c>
       <c r="S8">
-        <v>0.0584612379430968</v>
+        <v>0.05466519222327614</v>
       </c>
       <c r="T8">
-        <v>0.0584612379430968</v>
+        <v>0.05466519222327613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H9">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J9">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>3084.858817215357</v>
+        <v>3133.27071252678</v>
       </c>
       <c r="R9">
-        <v>3084.858817215357</v>
+        <v>28199.43641274102</v>
       </c>
       <c r="S9">
-        <v>0.155422269668384</v>
+        <v>0.1442594567490148</v>
       </c>
       <c r="T9">
-        <v>0.155422269668384</v>
+        <v>0.1442594567490148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H10">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J10">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>3071.691375916881</v>
+        <v>3616.417784772278</v>
       </c>
       <c r="R10">
-        <v>3071.691375916881</v>
+        <v>32547.7600629505</v>
       </c>
       <c r="S10">
-        <v>0.1547588637449383</v>
+        <v>0.1665041143502105</v>
       </c>
       <c r="T10">
-        <v>0.1547588637449383</v>
+        <v>0.1665041143502104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H11">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J11">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>736.5060606698798</v>
+        <v>840.6952943041155</v>
       </c>
       <c r="R11">
-        <v>736.5060606698798</v>
+        <v>7566.25764873704</v>
       </c>
       <c r="S11">
-        <v>0.03710686626403299</v>
+        <v>0.03870659689981328</v>
       </c>
       <c r="T11">
-        <v>0.03710686626403299</v>
+        <v>0.03870659689981327</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H12">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I12">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J12">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>37.93328408239157</v>
+        <v>40.68697360033978</v>
       </c>
       <c r="R12">
-        <v>37.93328408239157</v>
+        <v>366.182762403058</v>
       </c>
       <c r="S12">
-        <v>0.001911165942233555</v>
+        <v>0.001873275962041967</v>
       </c>
       <c r="T12">
-        <v>0.001911165942233555</v>
+        <v>0.001873275962041967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H13">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I13">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J13">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>155.7324883580885</v>
+        <v>168.3343300798542</v>
       </c>
       <c r="R13">
-        <v>155.7324883580885</v>
+        <v>1515.008970718688</v>
       </c>
       <c r="S13">
-        <v>0.007846160306152376</v>
+        <v>0.007750309895803987</v>
       </c>
       <c r="T13">
-        <v>0.007846160306152376</v>
+        <v>0.007750309895803985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H14">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I14">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J14">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>414.0229946084708</v>
+        <v>444.2281829055601</v>
       </c>
       <c r="R14">
-        <v>414.0229946084708</v>
+        <v>3998.05364615004</v>
       </c>
       <c r="S14">
-        <v>0.02085942901433515</v>
+        <v>0.02045278631123398</v>
       </c>
       <c r="T14">
-        <v>0.02085942901433515</v>
+        <v>0.02045278631123398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H15">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I15">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J15">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>412.2557748422686</v>
+        <v>512.7277048656896</v>
       </c>
       <c r="R15">
-        <v>412.2557748422686</v>
+        <v>4614.549343791206</v>
       </c>
       <c r="S15">
-        <v>0.02077039242519429</v>
+        <v>0.02360658460450898</v>
       </c>
       <c r="T15">
-        <v>0.02077039242519429</v>
+        <v>0.02360658460450898</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H16">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I16">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J16">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>98.84745554128362</v>
+        <v>119.1919170829642</v>
       </c>
       <c r="R16">
-        <v>98.84745554128362</v>
+        <v>1072.727253746678</v>
       </c>
       <c r="S16">
-        <v>0.004980161751790946</v>
+        <v>0.00548773559160349</v>
       </c>
       <c r="T16">
-        <v>0.004980161751790946</v>
+        <v>0.005487735591603488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H17">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I17">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J17">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>48.38115292151094</v>
+        <v>48.48595808162155</v>
       </c>
       <c r="R17">
-        <v>48.38115292151094</v>
+        <v>436.3736227345939</v>
       </c>
       <c r="S17">
-        <v>0.002437553561372417</v>
+        <v>0.002232350350337131</v>
       </c>
       <c r="T17">
-        <v>0.002437553561372417</v>
+        <v>0.002232350350337131</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H18">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I18">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J18">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>198.6254951650122</v>
+        <v>200.6010904650204</v>
       </c>
       <c r="R18">
-        <v>198.6254951650122</v>
+        <v>1805.409814185184</v>
       </c>
       <c r="S18">
-        <v>0.01000720846616227</v>
+        <v>0.009235909370373781</v>
       </c>
       <c r="T18">
-        <v>0.01000720846616227</v>
+        <v>0.009235909370373777</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H19">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I19">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J19">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>528.0563046338656</v>
+        <v>529.37899158108</v>
       </c>
       <c r="R19">
-        <v>528.0563046338656</v>
+        <v>4764.410924229719</v>
       </c>
       <c r="S19">
-        <v>0.02660468897989294</v>
+        <v>0.02437322936524756</v>
       </c>
       <c r="T19">
-        <v>0.02660468897989294</v>
+        <v>0.02437322936524756</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H20">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I20">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J20">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>525.80234398103</v>
+        <v>611.008679328173</v>
       </c>
       <c r="R20">
-        <v>525.80234398103</v>
+        <v>5499.078113953557</v>
       </c>
       <c r="S20">
-        <v>0.02649112926738618</v>
+        <v>0.02813155588389392</v>
       </c>
       <c r="T20">
-        <v>0.02649112926738618</v>
+        <v>0.02813155588389392</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H21">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I21">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J21">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N21">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q21">
-        <v>126.0727611154828</v>
+        <v>142.0389324632504</v>
       </c>
       <c r="R21">
-        <v>126.0727611154828</v>
+        <v>1278.350392169254</v>
       </c>
       <c r="S21">
-        <v>0.006351835152577877</v>
+        <v>0.006539638963348392</v>
       </c>
       <c r="T21">
-        <v>0.006351835152577877</v>
+        <v>0.006539638963348391</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H22">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I22">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J22">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N22">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q22">
-        <v>73.34537648986134</v>
+        <v>77.50126869883866</v>
       </c>
       <c r="R22">
-        <v>73.34537648986134</v>
+        <v>697.5114182895479</v>
       </c>
       <c r="S22">
-        <v>0.003695308459538026</v>
+        <v>0.003568249265904544</v>
       </c>
       <c r="T22">
-        <v>0.003695308459538026</v>
+        <v>0.003568249265904544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H23">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I23">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J23">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N23">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q23">
-        <v>301.114397728329</v>
+        <v>320.6462165239253</v>
       </c>
       <c r="R23">
-        <v>301.114397728329</v>
+        <v>2885.815948715328</v>
       </c>
       <c r="S23">
-        <v>0.0151708346792385</v>
+        <v>0.01476292770344946</v>
       </c>
       <c r="T23">
-        <v>0.0151708346792385</v>
+        <v>0.01476292770344946</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H24">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I24">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J24">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N24">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q24">
-        <v>800.5284316818268</v>
+        <v>846.17371901736</v>
       </c>
       <c r="R24">
-        <v>800.5284316818268</v>
+        <v>7615.56347115624</v>
       </c>
       <c r="S24">
-        <v>0.04033246030311782</v>
+        <v>0.03895882999598762</v>
       </c>
       <c r="T24">
-        <v>0.04033246030311782</v>
+        <v>0.03895882999598762</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H25">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I25">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J25">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N25">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q25">
-        <v>797.1114483589251</v>
+        <v>976.6528229517373</v>
       </c>
       <c r="R25">
-        <v>797.1114483589251</v>
+        <v>8789.875406565636</v>
       </c>
       <c r="S25">
-        <v>0.04016030483833588</v>
+        <v>0.04496624090223904</v>
       </c>
       <c r="T25">
-        <v>0.04016030483833588</v>
+        <v>0.04496624090223903</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H26">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I26">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J26">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N26">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q26">
-        <v>191.1251297407622</v>
+        <v>227.0388769465853</v>
       </c>
       <c r="R26">
-        <v>191.1251297407622</v>
+        <v>2043.349892519268</v>
       </c>
       <c r="S26">
-        <v>0.009629322836170455</v>
+        <v>0.01045313605309515</v>
       </c>
       <c r="T26">
-        <v>0.009629322836170455</v>
+        <v>0.01045313605309515</v>
       </c>
     </row>
   </sheetData>
